--- a/wild_reports/2023_24/tr0330t006_wild_report.xlsx
+++ b/wild_reports/2023_24/tr0330t006_wild_report.xlsx
@@ -55,9 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,6 +518,430 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>Weasel</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Flying squirrel </t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr"/>
+      <c r="M3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>Marten</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr"/>
+      <c r="M4" s="2" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Squirrel</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr"/>
+      <c r="M5" s="2" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Weasel</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Fisher</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Weasel</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>2023/24</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Registered Trapline</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>TR0330T006</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Squirrel</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
